--- a/Inputs/Orange_IPMI/info.xlsx
+++ b/Inputs/Orange_IPMI/info.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Annually</t>
   </si>
   <si>
-    <t xml:space="preserve">Scans &amp; Diagnostic Tests/Out-patient Consultations/Out-patient Specialists/Annual Limit/Dental/Optical Benefits/Maternity (Consultations, Scans and Delivery)/Radiology Services/Physiotherapy/Alternative Medicines</t>
+    <t xml:space="preserve">Scans &amp; Diagnostic Tests/Out-patient Consultations/Out-patient Specialists/Annual Limit/Dental/Optical Benefits/Maternity (Consultations, Scans and Delivery)/Radiology/Physiotherapy/Alternative Medicines</t>
   </si>
   <si>
     <t xml:space="preserve">advanced</t>
@@ -260,10 +260,10 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.01"/>
@@ -306,7 +306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="37.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>

--- a/Inputs/Orange_IPMI/info.xlsx
+++ b/Inputs/Orange_IPMI/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">provider</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">showAddons</t>
   </si>
   <si>
+    <t xml:space="preserve">companyId</t>
+  </si>
+  <si>
     <t xml:space="preserve">Orange_IPMI</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">Out-patient Consultations/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">werfrw4523543</t>
   </si>
 </sst>
 </file>
@@ -159,8 +165,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -257,13 +267,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.01"/>
@@ -271,32 +281,33 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="89.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
@@ -305,37 +316,43 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
